--- a/Pharmacy_Bug_Report.xlsx
+++ b/Pharmacy_Bug_Report.xlsx
@@ -227,7 +227,7 @@
     <t xml:space="preserve">BUG_07            Misaligned action buttons on product cards </t>
   </si>
   <si>
-    <t xml:space="preserve">The action buttons (e.g., "Add to Cart", "Wishlist") are not vertically aligned across all product cards.</t>
+    <t xml:space="preserve">The action buttons ( "Add to Cart", "Wishlist") are not vertically aligned across all product cards.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -597,7 +597,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
